--- a/cardbattle/Com/deck.xlsx
+++ b/cardbattle/Com/deck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/job/Documents/Git/Univ.Project-exercise/cardbattle/Com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941F79A-C593-C044-8253-42908AE093A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3420F1B0-E51D-E542-ABEF-1FE64FB3206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deck" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,27 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1061,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W39" zoomScale="99" workbookViewId="0">
-      <selection activeCell="AE55" sqref="AE55"/>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9463,13 +9483,13 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="AV55:AV56">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:AX51">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AX54">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9477,17 +9497,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:50">
+      <c r="A1" s="1">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:AX1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
